--- a/测试记录/测试需求表.xlsx
+++ b/测试记录/测试需求表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="功能测试" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="121">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -159,15 +159,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>吊挂相应的重物？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>电位计超限：电位计超限时，电机不会工作。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>上位机发送模拟数据？</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -473,8 +465,47 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1、空载状态下，加速度改变对电流变化无影响。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>改动：10-》3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改动：40-》63</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、空载状态下，加速度改变对电流变化无影响。
+2、低负载情况下，启动均电流未超过16A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超过阈值上报位置超限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超过阈值上报力矩超限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上位机发送模拟数据？
+在位置超限区域启动。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吊挂相应的重物？
+上位机数据超限</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能OK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能OK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能实现，有几率出现无法开机；有几率出现开机后马上关机；有几率出现关机后开机再立即关机的情况。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1211,8 +1242,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1228,7 +1259,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="62.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A1" s="17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -1282,7 +1313,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="37.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" ht="112.5" x14ac:dyDescent="0.15">
       <c r="A5" s="14">
         <v>1</v>
       </c>
@@ -1298,7 +1329,9 @@
       <c r="E5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="8"/>
+      <c r="F5" s="8" t="s">
+        <v>120</v>
+      </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
     </row>
@@ -1403,7 +1436,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>29</v>
@@ -1428,9 +1461,11 @@
         <v>34</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="8"/>
+        <v>117</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>119</v>
+      </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
     </row>
@@ -1441,12 +1476,14 @@
         <v>31</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="8"/>
+        <v>116</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>118</v>
+      </c>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
     </row>
@@ -1454,13 +1491,13 @@
       <c r="A15" s="15"/>
       <c r="B15" s="12"/>
       <c r="C15" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="E15" s="8" t="s">
         <v>40</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>42</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
@@ -1470,13 +1507,13 @@
       <c r="A16" s="16"/>
       <c r="B16" s="13"/>
       <c r="C16" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="E16" s="8" t="s">
         <v>41</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>43</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
@@ -1726,7 +1763,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A6" sqref="A6:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1742,7 +1779,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="62.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A1" s="17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -1838,8 +1875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1856,7 +1893,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="62.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A1" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -1901,7 +1938,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>3</v>
@@ -1910,7 +1947,7 @@
         <v>6</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>4</v>
@@ -1921,40 +1958,40 @@
         <v>1</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I5" s="8"/>
     </row>
-    <row r="6" spans="1:9" ht="37.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" ht="75" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>2</v>
       </c>
       <c r="B6" s="12"/>
       <c r="C6" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>113</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I6" s="8"/>
     </row>
@@ -1964,16 +2001,16 @@
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I7" s="8"/>
     </row>
@@ -1983,16 +2020,16 @@
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I8" s="8"/>
     </row>
@@ -2002,14 +2039,14 @@
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I9" s="8"/>
     </row>
@@ -2019,16 +2056,16 @@
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I10" s="8"/>
     </row>
@@ -2038,16 +2075,18 @@
       </c>
       <c r="B11" s="12"/>
       <c r="C11" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" s="8"/>
+        <v>53</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>111</v>
+      </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I11" s="8"/>
     </row>
@@ -2057,16 +2096,18 @@
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="8"/>
+        <v>54</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>112</v>
+      </c>
       <c r="G12" s="8"/>
       <c r="H12" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I12" s="8"/>
     </row>
@@ -2076,16 +2117,16 @@
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I13" s="8"/>
     </row>
@@ -2095,16 +2136,16 @@
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I14" s="8"/>
     </row>
@@ -2114,16 +2155,16 @@
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I15" s="8"/>
     </row>
@@ -2133,16 +2174,16 @@
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I16" s="8"/>
     </row>
@@ -2152,16 +2193,16 @@
       </c>
       <c r="B17" s="12"/>
       <c r="C17" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I17" s="8"/>
     </row>
@@ -2171,16 +2212,16 @@
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I18" s="8"/>
     </row>
@@ -2190,16 +2231,16 @@
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I19" s="8"/>
     </row>
@@ -2209,16 +2250,16 @@
       </c>
       <c r="B20" s="12"/>
       <c r="C20" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I20" s="8"/>
     </row>
@@ -2228,16 +2269,16 @@
       </c>
       <c r="B21" s="13"/>
       <c r="C21" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I21" s="8"/>
     </row>
@@ -2246,19 +2287,19 @@
         <v>18</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I22" s="8"/>
     </row>
@@ -2267,16 +2308,18 @@
         <v>19</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="F23" s="8"/>
+        <v>97</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>115</v>
+      </c>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -2287,13 +2330,15 @@
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F24" s="8"/>
+        <v>96</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>114</v>
+      </c>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
@@ -2304,7 +2349,7 @@
       </c>
       <c r="B25" s="12"/>
       <c r="C25" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8">
@@ -2321,7 +2366,7 @@
       </c>
       <c r="B26" s="13"/>
       <c r="C26" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8">
@@ -2566,6 +2611,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2574,7 +2620,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2587,17 +2633,17 @@
   <sheetData>
     <row r="1" spans="1:5" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B1" s="29" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="30"/>
       <c r="D1" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="56.25" x14ac:dyDescent="0.15">
@@ -2605,14 +2651,14 @@
         <v>1</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C2" s="32"/>
       <c r="D2" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/测试记录/测试需求表.xlsx
+++ b/测试记录/测试需求表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="功能测试" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="运动模块测试" sheetId="4" r:id="rId3"/>
     <sheet name="测试配置" sheetId="6" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="131">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -420,10 +420,6 @@
   </si>
   <si>
     <t>阈值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20N</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -478,10 +474,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>超过阈值上报位置超限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>超过阈值上报力矩超限</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -506,6 +498,54 @@
   <si>
     <t>功能实现，有几率出现无法开机；有几率出现开机后马上关机；有几率出现关机后开机再立即关机的情况。</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试人员反馈20N感受到的力过大，15N依然比桌面版的大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超过阈值上报位置超限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试预紧力点的动态调整范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不同穿戴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同一次穿戴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在不同穿戴条件下，测试站立位，记录站立位所在位置。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同一次穿戴条件下，运动10分钟后再次测试站立点。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>见system_test\test_for_preload_position\doc.docx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>见system_test\test_for_preload_position\doc.docx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1242,8 +1282,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1259,7 +1299,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="62.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A1" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -1330,7 +1370,7 @@
         <v>10</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
@@ -1461,10 +1501,10 @@
         <v>34</v>
       </c>
       <c r="E13" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>117</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>119</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
@@ -1479,10 +1519,10 @@
         <v>35</v>
       </c>
       <c r="E14" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>116</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>118</v>
       </c>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
@@ -1779,7 +1819,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="62.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A1" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -1875,8 +1915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1938,7 +1978,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>3</v>
@@ -1984,10 +2024,10 @@
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="8" t="s">
@@ -2082,7 +2122,7 @@
         <v>53</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8" t="s">
@@ -2103,7 +2143,7 @@
         <v>54</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="8" t="s">
@@ -2111,7 +2151,7 @@
       </c>
       <c r="I12" s="8"/>
     </row>
-    <row r="13" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" ht="37.5" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>9</v>
       </c>
@@ -2121,9 +2161,11 @@
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="F13" s="8"/>
+        <v>119</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>120</v>
+      </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8" t="s">
         <v>85</v>
@@ -2318,7 +2360,7 @@
         <v>97</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
@@ -2337,7 +2379,7 @@
         <v>96</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
@@ -2377,30 +2419,48 @@
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
     </row>
-    <row r="27" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>23</v>
       </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="10"/>
+      <c r="B27" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>123</v>
+      </c>
       <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
+      <c r="E27" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>130</v>
+      </c>
       <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
+      <c r="H27" s="8" t="s">
+        <v>125</v>
+      </c>
       <c r="I27" s="8"/>
     </row>
-    <row r="28" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9" ht="56.25" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>24</v>
       </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="10"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="10" t="s">
+        <v>124</v>
+      </c>
       <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
+      <c r="E28" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>129</v>
+      </c>
       <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
+      <c r="H28" s="8" t="s">
+        <v>126</v>
+      </c>
       <c r="I28" s="8"/>
     </row>
     <row r="29" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
@@ -2599,7 +2659,8 @@
       <c r="I43" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="B27:B28"/>
     <mergeCell ref="B23:B26"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:B21"/>
@@ -2620,7 +2681,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2633,17 +2694,17 @@
   <sheetData>
     <row r="1" spans="1:5" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B1" s="29" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="30"/>
       <c r="D1" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="56.25" x14ac:dyDescent="0.15">
@@ -2651,14 +2712,14 @@
         <v>1</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C2" s="32"/>
       <c r="D2" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/测试记录/测试需求表.xlsx
+++ b/测试记录/测试需求表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="功能测试" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="132">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -332,10 +332,6 @@
   </si>
   <si>
     <t>优先级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -545,6 +541,14 @@
   </si>
   <si>
     <t>见system_test\test_for_preload_position\doc.docx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过改变电流环参数解决，需长期测试观察。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1299,7 +1303,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="62.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A1" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -1370,7 +1374,7 @@
         <v>10</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
@@ -1501,10 +1505,10 @@
         <v>34</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
@@ -1519,10 +1523,10 @@
         <v>35</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
@@ -1803,7 +1807,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:H6"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1819,7 +1823,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="62.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A1" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -1915,8 +1919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1978,7 +1982,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>3</v>
@@ -2010,7 +2014,7 @@
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I5" s="8"/>
     </row>
@@ -2024,16 +2028,18 @@
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="I6" s="8"/>
+        <v>130</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
@@ -2050,7 +2056,7 @@
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I7" s="8"/>
     </row>
@@ -2069,7 +2075,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I8" s="8"/>
     </row>
@@ -2086,7 +2092,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I9" s="8"/>
     </row>
@@ -2105,7 +2111,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I10" s="8"/>
     </row>
@@ -2115,18 +2121,18 @@
       </c>
       <c r="B11" s="12"/>
       <c r="C11" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8" t="s">
         <v>53</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I11" s="8"/>
     </row>
@@ -2143,11 +2149,11 @@
         <v>54</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I12" s="8"/>
     </row>
@@ -2161,14 +2167,14 @@
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>119</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>120</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I13" s="8"/>
     </row>
@@ -2187,7 +2193,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I14" s="8"/>
     </row>
@@ -2206,7 +2212,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I15" s="8"/>
     </row>
@@ -2225,7 +2231,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I16" s="8"/>
     </row>
@@ -2244,7 +2250,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I17" s="8"/>
     </row>
@@ -2263,7 +2269,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I18" s="8"/>
     </row>
@@ -2282,7 +2288,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I19" s="8"/>
     </row>
@@ -2301,7 +2307,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I20" s="8"/>
     </row>
@@ -2320,7 +2326,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I21" s="8"/>
     </row>
@@ -2341,7 +2347,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I22" s="8"/>
     </row>
@@ -2350,17 +2356,17 @@
         <v>19</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
@@ -2372,14 +2378,14 @@
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
@@ -2391,7 +2397,7 @@
       </c>
       <c r="B25" s="12"/>
       <c r="C25" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8">
@@ -2408,7 +2414,7 @@
       </c>
       <c r="B26" s="13"/>
       <c r="C26" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8">
@@ -2424,21 +2430,21 @@
         <v>23</v>
       </c>
       <c r="B27" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" s="10" t="s">
         <v>122</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>123</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G27" s="8"/>
       <c r="H27" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I27" s="8"/>
     </row>
@@ -2448,18 +2454,18 @@
       </c>
       <c r="B28" s="13"/>
       <c r="C28" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F28" s="8" t="s">
         <v>128</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>129</v>
       </c>
       <c r="G28" s="8"/>
       <c r="H28" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I28" s="8"/>
     </row>
@@ -2680,8 +2686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2694,17 +2700,17 @@
   <sheetData>
     <row r="1" spans="1:5" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B1" s="29" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="30"/>
       <c r="D1" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="56.25" x14ac:dyDescent="0.15">
@@ -2712,14 +2718,14 @@
         <v>1</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C2" s="32"/>
       <c r="D2" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/测试记录/测试需求表.xlsx
+++ b/测试记录/测试需求表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="功能测试" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="142">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -144,10 +144,6 @@
   </si>
   <si>
     <t>位置超限</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>连续电流超过12A或者峰值电流超过16A时保护。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -550,13 +546,57 @@
   <si>
     <t>通过改变电流环参数解决，需长期测试观察。</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同一次穿戴条件下，运动1、2、5、10分钟后再次测试站立点。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以自检速度的一半碰撞到机械限位时，电流出现持续30ms后驱动器进入保护状态。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试验证完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>连续电流超过12A或者峰值电流超过16A时保护。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>驱动器非使能状态下，拉动钢丝绳需要的力矩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不适用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>驱动器非使能状态下，拉动钢丝绳需要，检测此时力传感器的数据。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>从静止状态下拉动需要15N-18N，拉动之后力矩很小无法计算得到。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录开机启动到自检完成需要的时间。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在未穿戴的状态下，启动需要2分13秒。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -622,6 +662,12 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -881,7 +927,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -912,6 +958,21 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1284,10 +1345,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1302,45 +1363,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="62.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="19"/>
-    </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="20"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="22"/>
-    </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="23"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="26"/>
+      <c r="A1" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="24"/>
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="25"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="27"/>
+    </row>
+    <row r="3" spans="1:8" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="28"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="31"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="28"/>
-    </row>
-    <row r="4" spans="1:8" s="7" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F3" s="30"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="33"/>
+    </row>
+    <row r="4" spans="1:8" s="7" customFormat="1" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="30"/>
+      <c r="C4" s="35"/>
       <c r="D4" s="5" t="s">
         <v>1</v>
       </c>
@@ -1358,10 +1419,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="112.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="14">
+      <c r="A5" s="19">
         <v>1</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C5" s="10" t="s">
@@ -1374,153 +1435,155 @@
         <v>10</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" ht="56.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="15"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="A6" s="20"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" s="8"/>
       <c r="E6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="8"/>
+        <v>140</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>141</v>
+      </c>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="37.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="15"/>
-      <c r="B7" s="12"/>
+    <row r="7" spans="1:8" ht="56.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="20"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="15"/>
-      <c r="B8" s="12"/>
+    <row r="8" spans="1:8" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="20"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="10" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="37.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="15"/>
-      <c r="B9" s="12"/>
+    <row r="9" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A9" s="20"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="10" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:8" ht="56.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="15"/>
-      <c r="B10" s="12"/>
+    <row r="10" spans="1:8" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="20"/>
+      <c r="B10" s="17"/>
       <c r="C10" s="10" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
     </row>
     <row r="11" spans="1:8" ht="56.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="16"/>
-      <c r="B11" s="13"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="17"/>
       <c r="C11" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" ht="37.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="14">
-        <v>2</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>42</v>
-      </c>
+    <row r="12" spans="1:8" ht="56.25" x14ac:dyDescent="0.15">
+      <c r="A12" s="21"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" ht="56.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="15"/>
-      <c r="B13" s="12"/>
+    <row r="13" spans="1:8" ht="93.75" x14ac:dyDescent="0.15">
+      <c r="A13" s="19">
+        <v>2</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>41</v>
+      </c>
       <c r="C13" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" spans="1:8" ht="56.25" x14ac:dyDescent="0.15">
+      <c r="A14" s="20"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-    </row>
-    <row r="14" spans="1:8" ht="37.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="15"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="10" t="s">
-        <v>31</v>
-      </c>
       <c r="D14" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>113</v>
@@ -1531,55 +1594,73 @@
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="15"/>
-      <c r="B15" s="12"/>
+    <row r="15" spans="1:8" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="20"/>
+      <c r="B15" s="17"/>
       <c r="C15" s="10" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="8"/>
+        <v>112</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>114</v>
+      </c>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="16"/>
-      <c r="B16" s="13"/>
+    <row r="16" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A16" s="20"/>
+      <c r="B16" s="17"/>
       <c r="C16" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="E16" s="8" t="s">
         <v>39</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>41</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A17" s="3"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
+    <row r="17" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A17" s="21"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A18" s="3"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
+    <row r="18" spans="1:8" ht="75" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <v>3</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>138</v>
+      </c>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
     </row>
@@ -1783,18 +1864,29 @@
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
     </row>
+    <row r="39" spans="1:8" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A39" s="3"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+    </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="B5:B11"/>
-    <mergeCell ref="A5:A11"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="A12:A16"/>
+  <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="F3:H3"/>
-    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B5:B12"/>
+    <mergeCell ref="A5:A12"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="A13:A17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1822,45 +1914,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="62.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="19"/>
+      <c r="A1" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="24"/>
     </row>
     <row r="2" spans="1:8" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="20"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="22"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:8" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="23"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="26"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="31"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="28"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="33"/>
     </row>
     <row r="4" spans="1:8" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="30"/>
+      <c r="C4" s="35"/>
       <c r="D4" s="5" t="s">
         <v>1</v>
       </c>
@@ -1917,10 +2009,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1936,53 +2028,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="62.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="19"/>
+      <c r="A1" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="24"/>
     </row>
     <row r="2" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="20"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="22"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="27"/>
     </row>
     <row r="3" spans="1:9" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="23"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="26"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="31"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="28"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="33"/>
     </row>
     <row r="4" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="30"/>
+      <c r="C4" s="35"/>
       <c r="D4" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>3</v>
@@ -1991,7 +2083,7 @@
         <v>6</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>4</v>
@@ -2001,20 +2093,20 @@
       <c r="A5" s="3">
         <v>1</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>55</v>
+      <c r="B5" s="16" t="s">
+        <v>54</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I5" s="8"/>
     </row>
@@ -2022,41 +2114,41 @@
       <c r="A6" s="3">
         <v>2</v>
       </c>
-      <c r="B6" s="12"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="I6" s="8" t="s">
         <v>130</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>3</v>
       </c>
-      <c r="B7" s="12"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I7" s="8"/>
     </row>
@@ -2064,18 +2156,18 @@
       <c r="A8" s="3">
         <v>4</v>
       </c>
-      <c r="B8" s="12"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I8" s="8"/>
     </row>
@@ -2083,16 +2175,16 @@
       <c r="A9" s="3">
         <v>5</v>
       </c>
-      <c r="B9" s="12"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I9" s="8"/>
     </row>
@@ -2100,18 +2192,18 @@
       <c r="A10" s="3">
         <v>6</v>
       </c>
-      <c r="B10" s="12"/>
+      <c r="B10" s="17"/>
       <c r="C10" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I10" s="8"/>
     </row>
@@ -2119,20 +2211,20 @@
       <c r="A11" s="3">
         <v>7</v>
       </c>
-      <c r="B11" s="12"/>
+      <c r="B11" s="17"/>
       <c r="C11" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I11" s="8"/>
     </row>
@@ -2140,20 +2232,20 @@
       <c r="A12" s="3">
         <v>8</v>
       </c>
-      <c r="B12" s="12"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I12" s="8"/>
     </row>
@@ -2161,20 +2253,20 @@
       <c r="A13" s="3">
         <v>9</v>
       </c>
-      <c r="B13" s="12"/>
+      <c r="B13" s="17"/>
       <c r="C13" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>118</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>119</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I13" s="8"/>
     </row>
@@ -2182,18 +2274,18 @@
       <c r="A14" s="3">
         <v>10</v>
       </c>
-      <c r="B14" s="12"/>
+      <c r="B14" s="17"/>
       <c r="C14" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I14" s="8"/>
     </row>
@@ -2201,18 +2293,18 @@
       <c r="A15" s="3">
         <v>11</v>
       </c>
-      <c r="B15" s="12"/>
+      <c r="B15" s="17"/>
       <c r="C15" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I15" s="8"/>
     </row>
@@ -2220,18 +2312,18 @@
       <c r="A16" s="3">
         <v>12</v>
       </c>
-      <c r="B16" s="12"/>
+      <c r="B16" s="17"/>
       <c r="C16" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I16" s="8"/>
     </row>
@@ -2239,18 +2331,18 @@
       <c r="A17" s="3">
         <v>13</v>
       </c>
-      <c r="B17" s="12"/>
+      <c r="B17" s="17"/>
       <c r="C17" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I17" s="8"/>
     </row>
@@ -2258,18 +2350,18 @@
       <c r="A18" s="3">
         <v>14</v>
       </c>
-      <c r="B18" s="12"/>
+      <c r="B18" s="17"/>
       <c r="C18" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I18" s="8"/>
     </row>
@@ -2277,18 +2369,18 @@
       <c r="A19" s="3">
         <v>15</v>
       </c>
-      <c r="B19" s="12"/>
+      <c r="B19" s="17"/>
       <c r="C19" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I19" s="8"/>
     </row>
@@ -2296,18 +2388,18 @@
       <c r="A20" s="3">
         <v>16</v>
       </c>
-      <c r="B20" s="12"/>
+      <c r="B20" s="17"/>
       <c r="C20" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I20" s="8"/>
     </row>
@@ -2315,18 +2407,18 @@
       <c r="A21" s="3">
         <v>17</v>
       </c>
-      <c r="B21" s="13"/>
+      <c r="B21" s="18"/>
       <c r="C21" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I21" s="8"/>
     </row>
@@ -2335,19 +2427,19 @@
         <v>18</v>
       </c>
       <c r="B22" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I22" s="8"/>
     </row>
@@ -2355,18 +2447,18 @@
       <c r="A23" s="3">
         <v>19</v>
       </c>
-      <c r="B23" s="11" t="s">
-        <v>99</v>
+      <c r="B23" s="16" t="s">
+        <v>98</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
@@ -2376,16 +2468,16 @@
       <c r="A24" s="3">
         <v>20</v>
       </c>
-      <c r="B24" s="12"/>
+      <c r="B24" s="17"/>
       <c r="C24" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
@@ -2395,9 +2487,9 @@
       <c r="A25" s="3">
         <v>21</v>
       </c>
-      <c r="B25" s="12"/>
+      <c r="B25" s="17"/>
       <c r="C25" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8">
@@ -2412,9 +2504,9 @@
       <c r="A26" s="3">
         <v>22</v>
       </c>
-      <c r="B26" s="13"/>
+      <c r="B26" s="18"/>
       <c r="C26" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8">
@@ -2429,22 +2521,22 @@
       <c r="A27" s="3">
         <v>23</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C27" s="10" t="s">
         <v>121</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>122</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G27" s="8"/>
       <c r="H27" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I27" s="8"/>
     </row>
@@ -2452,31 +2544,35 @@
       <c r="A28" s="3">
         <v>24</v>
       </c>
-      <c r="B28" s="13"/>
+      <c r="B28" s="17"/>
       <c r="C28" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F28" s="8" t="s">
         <v>127</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>128</v>
       </c>
       <c r="G28" s="8"/>
       <c r="H28" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I28" s="8"/>
     </row>
-    <row r="29" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9" ht="37.5" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>25</v>
       </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="10"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="11" t="s">
+        <v>122</v>
+      </c>
       <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
+      <c r="E29" s="8" t="s">
+        <v>131</v>
+      </c>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
@@ -2664,9 +2760,12 @@
       <c r="H43" s="8"/>
       <c r="I43" s="8"/>
     </row>
+    <row r="56" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="B56" s="12"/>
+    </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B27:B29"/>
     <mergeCell ref="B23:B26"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:B21"/>
@@ -2686,8 +2785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2700,32 +2799,32 @@
   <sheetData>
     <row r="1" spans="1:5" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B1" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="30"/>
+      <c r="C1" s="35"/>
       <c r="D1" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="56.25" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="C2" s="32"/>
+      <c r="B2" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="37"/>
       <c r="D2" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/测试记录/测试需求表.xlsx
+++ b/测试记录/测试需求表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="153">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -589,6 +589,50 @@
   </si>
   <si>
     <t>在未穿戴的状态下，启动需要2分13秒。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B点测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>角度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>趋势占比</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>角度值占比</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>深度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断开始行走</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断停止行走</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>长度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>长度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计电位计过零出现错数的概率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>试验发现电位计在过零时，数据会概率性的 出现抖动，经统计得到抖动出现的概率为7%</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -927,7 +971,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -966,30 +1010,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1028,10 +1058,30 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1347,8 +1397,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1363,45 +1413,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="62.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="24"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="20"/>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="27"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="23"/>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="28"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="31"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="27"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="33"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="29"/>
     </row>
     <row r="4" spans="1:8" s="7" customFormat="1" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="35"/>
+      <c r="C4" s="17"/>
       <c r="D4" s="5" t="s">
         <v>1</v>
       </c>
@@ -1419,10 +1469,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="112.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="19">
+      <c r="A5" s="35">
         <v>1</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="32" t="s">
         <v>28</v>
       </c>
       <c r="C5" s="10" t="s">
@@ -1441,8 +1491,8 @@
       <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" ht="56.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="20"/>
-      <c r="B6" s="17"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="13" t="s">
         <v>139</v>
       </c>
@@ -1457,8 +1507,8 @@
       <c r="H6" s="8"/>
     </row>
     <row r="7" spans="1:8" ht="56.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="20"/>
-      <c r="B7" s="17"/>
+      <c r="A7" s="36"/>
+      <c r="B7" s="33"/>
       <c r="C7" s="10" t="s">
         <v>12</v>
       </c>
@@ -1473,8 +1523,8 @@
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" ht="37.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="20"/>
-      <c r="B8" s="17"/>
+      <c r="A8" s="36"/>
+      <c r="B8" s="33"/>
       <c r="C8" s="10" t="s">
         <v>14</v>
       </c>
@@ -1489,8 +1539,8 @@
       <c r="H8" s="8"/>
     </row>
     <row r="9" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A9" s="20"/>
-      <c r="B9" s="17"/>
+      <c r="A9" s="36"/>
+      <c r="B9" s="33"/>
       <c r="C9" s="10" t="s">
         <v>25</v>
       </c>
@@ -1505,8 +1555,8 @@
       <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" ht="37.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="20"/>
-      <c r="B10" s="17"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="33"/>
       <c r="C10" s="10" t="s">
         <v>8</v>
       </c>
@@ -1521,8 +1571,8 @@
       <c r="H10" s="8"/>
     </row>
     <row r="11" spans="1:8" ht="56.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="20"/>
-      <c r="B11" s="17"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="33"/>
       <c r="C11" s="10" t="s">
         <v>26</v>
       </c>
@@ -1537,8 +1587,8 @@
       <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" ht="56.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="21"/>
-      <c r="B12" s="18"/>
+      <c r="A12" s="37"/>
+      <c r="B12" s="34"/>
       <c r="C12" s="10" t="s">
         <v>27</v>
       </c>
@@ -1553,10 +1603,10 @@
       <c r="H12" s="8"/>
     </row>
     <row r="13" spans="1:8" ht="93.75" x14ac:dyDescent="0.15">
-      <c r="A13" s="19">
+      <c r="A13" s="35">
         <v>2</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="32" t="s">
         <v>41</v>
       </c>
       <c r="C13" s="10" t="s">
@@ -1577,8 +1627,8 @@
       <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" ht="56.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="20"/>
-      <c r="B14" s="17"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="33"/>
       <c r="C14" s="10" t="s">
         <v>30</v>
       </c>
@@ -1595,8 +1645,8 @@
       <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:8" ht="37.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="20"/>
-      <c r="B15" s="17"/>
+      <c r="A15" s="36"/>
+      <c r="B15" s="33"/>
       <c r="C15" s="10" t="s">
         <v>31</v>
       </c>
@@ -1613,8 +1663,8 @@
       <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A16" s="20"/>
-      <c r="B16" s="17"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="10" t="s">
         <v>35</v>
       </c>
@@ -1629,8 +1679,8 @@
       <c r="H16" s="8"/>
     </row>
     <row r="17" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A17" s="21"/>
-      <c r="B17" s="18"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="34"/>
       <c r="C17" s="10" t="s">
         <v>36</v>
       </c>
@@ -1648,10 +1698,10 @@
       <c r="A18" s="3">
         <v>3</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="C18" s="15"/>
+      <c r="C18" s="31"/>
       <c r="D18" s="8" t="s">
         <v>136</v>
       </c>
@@ -1664,12 +1714,18 @@
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A19" s="3"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="10"/>
+    <row r="19" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
+        <v>4</v>
+      </c>
+      <c r="B19" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="C19" s="39"/>
       <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
+      <c r="E19" s="8" t="s">
+        <v>152</v>
+      </c>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
@@ -1875,18 +1931,19 @@
       <c r="H39" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B5:B12"/>
+    <mergeCell ref="A5:A12"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="A13:A17"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="F3:H3"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B5:B12"/>
-    <mergeCell ref="A5:A12"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="A13:A17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1896,10 +1953,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1914,45 +1971,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="62.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="24"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="20"/>
     </row>
     <row r="2" spans="1:8" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="27"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="23"/>
     </row>
     <row r="3" spans="1:8" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="28"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="31"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="27"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="33"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="29"/>
     </row>
     <row r="4" spans="1:8" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="35"/>
+      <c r="C4" s="17"/>
       <c r="D4" s="5" t="s">
         <v>1</v>
       </c>
@@ -1973,8 +2030,12 @@
       <c r="A5" s="3">
         <v>1</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
+      <c r="B5" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>146</v>
+      </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
@@ -1986,12 +2047,230 @@
         <v>2</v>
       </c>
       <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
+      <c r="C6" s="10" t="s">
+        <v>143</v>
+      </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
+    </row>
+    <row r="7" spans="1:8" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>3</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="1:8" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>4</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="1:8" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
+        <v>5</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="1:8" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>6</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+    </row>
+    <row r="11" spans="1:8" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>7</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="1:8" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>8</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" spans="1:8" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>9</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" spans="1:8" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>10</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+    </row>
+    <row r="15" spans="1:8" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>11</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+    </row>
+    <row r="16" spans="1:8" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>12</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" spans="1:8" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>13</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="1:8" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <v>14</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+    </row>
+    <row r="19" spans="1:8" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
+        <v>15</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+    </row>
+    <row r="20" spans="1:8" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
+        <v>16</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+    </row>
+    <row r="21" spans="1:8" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
+        <v>17</v>
+      </c>
+      <c r="B21" s="14"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+    </row>
+    <row r="22" spans="1:8" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
+        <v>18</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+    </row>
+    <row r="23" spans="1:8" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
+        <v>19</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2004,6 +2283,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2011,7 +2291,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -2028,48 +2308,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="62.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="24"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="20"/>
     </row>
     <row r="2" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="27"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="23"/>
     </row>
     <row r="3" spans="1:9" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="28"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="31"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="27"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="33"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="29"/>
     </row>
     <row r="4" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="35"/>
+      <c r="C4" s="17"/>
       <c r="D4" s="5" t="s">
         <v>1</v>
       </c>
@@ -2093,7 +2373,7 @@
       <c r="A5" s="3">
         <v>1</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="32" t="s">
         <v>54</v>
       </c>
       <c r="C5" s="10" t="s">
@@ -2114,7 +2394,7 @@
       <c r="A6" s="3">
         <v>2</v>
       </c>
-      <c r="B6" s="17"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="10" t="s">
         <v>43</v>
       </c>
@@ -2137,7 +2417,7 @@
       <c r="A7" s="3">
         <v>3</v>
       </c>
-      <c r="B7" s="17"/>
+      <c r="B7" s="33"/>
       <c r="C7" s="10" t="s">
         <v>44</v>
       </c>
@@ -2156,7 +2436,7 @@
       <c r="A8" s="3">
         <v>4</v>
       </c>
-      <c r="B8" s="17"/>
+      <c r="B8" s="33"/>
       <c r="C8" s="10" t="s">
         <v>45</v>
       </c>
@@ -2175,7 +2455,7 @@
       <c r="A9" s="3">
         <v>5</v>
       </c>
-      <c r="B9" s="17"/>
+      <c r="B9" s="33"/>
       <c r="C9" s="10" t="s">
         <v>46</v>
       </c>
@@ -2192,7 +2472,7 @@
       <c r="A10" s="3">
         <v>6</v>
       </c>
-      <c r="B10" s="17"/>
+      <c r="B10" s="33"/>
       <c r="C10" s="10" t="s">
         <v>47</v>
       </c>
@@ -2211,7 +2491,7 @@
       <c r="A11" s="3">
         <v>7</v>
       </c>
-      <c r="B11" s="17"/>
+      <c r="B11" s="33"/>
       <c r="C11" s="10" t="s">
         <v>81</v>
       </c>
@@ -2232,7 +2512,7 @@
       <c r="A12" s="3">
         <v>8</v>
       </c>
-      <c r="B12" s="17"/>
+      <c r="B12" s="33"/>
       <c r="C12" s="10" t="s">
         <v>48</v>
       </c>
@@ -2253,7 +2533,7 @@
       <c r="A13" s="3">
         <v>9</v>
       </c>
-      <c r="B13" s="17"/>
+      <c r="B13" s="33"/>
       <c r="C13" s="10" t="s">
         <v>55</v>
       </c>
@@ -2274,7 +2554,7 @@
       <c r="A14" s="3">
         <v>10</v>
       </c>
-      <c r="B14" s="17"/>
+      <c r="B14" s="33"/>
       <c r="C14" s="10" t="s">
         <v>68</v>
       </c>
@@ -2293,7 +2573,7 @@
       <c r="A15" s="3">
         <v>11</v>
       </c>
-      <c r="B15" s="17"/>
+      <c r="B15" s="33"/>
       <c r="C15" s="10" t="s">
         <v>56</v>
       </c>
@@ -2312,7 +2592,7 @@
       <c r="A16" s="3">
         <v>12</v>
       </c>
-      <c r="B16" s="17"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="10" t="s">
         <v>58</v>
       </c>
@@ -2331,7 +2611,7 @@
       <c r="A17" s="3">
         <v>13</v>
       </c>
-      <c r="B17" s="17"/>
+      <c r="B17" s="33"/>
       <c r="C17" s="10" t="s">
         <v>59</v>
       </c>
@@ -2350,7 +2630,7 @@
       <c r="A18" s="3">
         <v>14</v>
       </c>
-      <c r="B18" s="17"/>
+      <c r="B18" s="33"/>
       <c r="C18" s="10" t="s">
         <v>64</v>
       </c>
@@ -2369,7 +2649,7 @@
       <c r="A19" s="3">
         <v>15</v>
       </c>
-      <c r="B19" s="17"/>
+      <c r="B19" s="33"/>
       <c r="C19" s="10" t="s">
         <v>66</v>
       </c>
@@ -2388,7 +2668,7 @@
       <c r="A20" s="3">
         <v>16</v>
       </c>
-      <c r="B20" s="17"/>
+      <c r="B20" s="33"/>
       <c r="C20" s="10" t="s">
         <v>69</v>
       </c>
@@ -2407,7 +2687,7 @@
       <c r="A21" s="3">
         <v>17</v>
       </c>
-      <c r="B21" s="18"/>
+      <c r="B21" s="34"/>
       <c r="C21" s="10" t="s">
         <v>71</v>
       </c>
@@ -2447,7 +2727,7 @@
       <c r="A23" s="3">
         <v>19</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="32" t="s">
         <v>98</v>
       </c>
       <c r="C23" s="10" t="s">
@@ -2468,7 +2748,7 @@
       <c r="A24" s="3">
         <v>20</v>
       </c>
-      <c r="B24" s="17"/>
+      <c r="B24" s="33"/>
       <c r="C24" s="10" t="s">
         <v>93</v>
       </c>
@@ -2487,7 +2767,7 @@
       <c r="A25" s="3">
         <v>21</v>
       </c>
-      <c r="B25" s="17"/>
+      <c r="B25" s="33"/>
       <c r="C25" s="10" t="s">
         <v>96</v>
       </c>
@@ -2504,7 +2784,7 @@
       <c r="A26" s="3">
         <v>22</v>
       </c>
-      <c r="B26" s="18"/>
+      <c r="B26" s="34"/>
       <c r="C26" s="10" t="s">
         <v>97</v>
       </c>
@@ -2521,7 +2801,7 @@
       <c r="A27" s="3">
         <v>23</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="32" t="s">
         <v>120</v>
       </c>
       <c r="C27" s="10" t="s">
@@ -2544,7 +2824,7 @@
       <c r="A28" s="3">
         <v>24</v>
       </c>
-      <c r="B28" s="17"/>
+      <c r="B28" s="33"/>
       <c r="C28" s="10" t="s">
         <v>122</v>
       </c>
@@ -2565,7 +2845,7 @@
       <c r="A29" s="3">
         <v>25</v>
       </c>
-      <c r="B29" s="18"/>
+      <c r="B29" s="34"/>
       <c r="C29" s="11" t="s">
         <v>122</v>
       </c>
@@ -2801,10 +3081,10 @@
       <c r="A1" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="35"/>
+      <c r="C1" s="17"/>
       <c r="D1" s="5" t="s">
         <v>103</v>
       </c>
@@ -2816,10 +3096,10 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="37"/>
+      <c r="C2" s="39"/>
       <c r="D2" s="8" t="s">
         <v>105</v>
       </c>

--- a/测试记录/测试需求表.xlsx
+++ b/测试记录/测试需求表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="功能测试" sheetId="1" r:id="rId1"/>
@@ -13,11 +13,12 @@
     <sheet name="测试配置" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="195">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -339,15 +340,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>驱动器电流环Kp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -516,14 +509,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>在不同穿戴条件下，测试站立位，记录站立位所在位置。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -632,8 +617,194 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>试验发现电位计在过零时，数据会概率性的 出现抖动，经统计得到抖动出现的概率为7%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>试验发现电位计在过零时，数据会概率性的出现抖动，经统计得到抖动出现的概率为7%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自适应调整预紧力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>零位：30000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>站立位：25000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大位置：8000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>零位：20253</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>站立位：15247</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+测试参数（调整到最大位置时）
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大位置：-5036</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>步态测试脚本：统计在整个行走过程中出现B点的频率来判断步态的准确性；对比固定步姿和步态输出结果来判断步态的延时。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿戴版1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿戴版2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减速比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>限流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桌面版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16A/12A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16A/12A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.5kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电机负载能力测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6kg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大负重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.5kg未出现16A过流保护，出现12A过流保护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加速度：1000r/s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动距离:9.2cm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6kg以上16A过流保护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15kg以上16A过流保护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12kg以上16A过流保护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1cm/s = 5r/s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1cm/s = 12r/s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4*3.1cm/s = 48r/s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1cm = 5r/s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -721,7 +892,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -967,11 +1138,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1016,6 +1209,44 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1058,36 +1289,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1397,8 +1605,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1413,45 +1621,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="62.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="20"/>
+      <c r="A1" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="32"/>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="23"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="35"/>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="24"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="27"/>
+      <c r="A3" s="36"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="39"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="29"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="41"/>
     </row>
     <row r="4" spans="1:8" s="7" customFormat="1" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="17"/>
+      <c r="C4" s="29"/>
       <c r="D4" s="5" t="s">
         <v>1</v>
       </c>
@@ -1469,10 +1677,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="112.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="35">
+      <c r="A5" s="25">
         <v>1</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="22" t="s">
         <v>28</v>
       </c>
       <c r="C5" s="10" t="s">
@@ -1485,30 +1693,30 @@
         <v>10</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" ht="56.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="36"/>
-      <c r="B6" s="33"/>
+      <c r="A6" s="26"/>
+      <c r="B6" s="23"/>
       <c r="C6" s="13" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
     </row>
     <row r="7" spans="1:8" ht="56.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="36"/>
-      <c r="B7" s="33"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="23"/>
       <c r="C7" s="10" t="s">
         <v>12</v>
       </c>
@@ -1523,8 +1731,8 @@
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" ht="37.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="36"/>
-      <c r="B8" s="33"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="10" t="s">
         <v>14</v>
       </c>
@@ -1539,8 +1747,8 @@
       <c r="H8" s="8"/>
     </row>
     <row r="9" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A9" s="36"/>
-      <c r="B9" s="33"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="23"/>
       <c r="C9" s="10" t="s">
         <v>25</v>
       </c>
@@ -1555,8 +1763,8 @@
       <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" ht="37.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="36"/>
-      <c r="B10" s="33"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="23"/>
       <c r="C10" s="10" t="s">
         <v>8</v>
       </c>
@@ -1571,8 +1779,8 @@
       <c r="H10" s="8"/>
     </row>
     <row r="11" spans="1:8" ht="56.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="36"/>
-      <c r="B11" s="33"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="10" t="s">
         <v>26</v>
       </c>
@@ -1587,8 +1795,8 @@
       <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" ht="56.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="37"/>
-      <c r="B12" s="34"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="24"/>
       <c r="C12" s="10" t="s">
         <v>27</v>
       </c>
@@ -1603,32 +1811,32 @@
       <c r="H12" s="8"/>
     </row>
     <row r="13" spans="1:8" ht="93.75" x14ac:dyDescent="0.15">
-      <c r="A13" s="35">
+      <c r="A13" s="25">
         <v>2</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="22" t="s">
         <v>41</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>32</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" ht="56.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="36"/>
-      <c r="B14" s="33"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="10" t="s">
         <v>30</v>
       </c>
@@ -1636,17 +1844,17 @@
         <v>33</v>
       </c>
       <c r="E14" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>113</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>115</v>
       </c>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:8" ht="37.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="36"/>
-      <c r="B15" s="33"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="10" t="s">
         <v>31</v>
       </c>
@@ -1654,17 +1862,17 @@
         <v>34</v>
       </c>
       <c r="E15" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F15" s="8" t="s">
         <v>112</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>114</v>
       </c>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A16" s="36"/>
-      <c r="B16" s="33"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="10" t="s">
         <v>35</v>
       </c>
@@ -1679,8 +1887,8 @@
       <c r="H16" s="8"/>
     </row>
     <row r="17" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A17" s="37"/>
-      <c r="B17" s="34"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="24"/>
       <c r="C17" s="10" t="s">
         <v>36</v>
       </c>
@@ -1698,18 +1906,18 @@
       <c r="A18" s="3">
         <v>3</v>
       </c>
-      <c r="B18" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="C18" s="31"/>
+      <c r="B18" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="C18" s="21"/>
       <c r="D18" s="8" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
@@ -1718,13 +1926,13 @@
       <c r="A19" s="3">
         <v>4</v>
       </c>
-      <c r="B19" s="38" t="s">
-        <v>151</v>
-      </c>
-      <c r="C19" s="39"/>
+      <c r="B19" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C19" s="19"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
@@ -1932,18 +2140,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:H3"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B5:B12"/>
     <mergeCell ref="A5:A12"/>
     <mergeCell ref="B13:B17"/>
     <mergeCell ref="A13:A17"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1953,10 +2161,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1971,45 +2179,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="62.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="20"/>
+      <c r="A1" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="32"/>
     </row>
     <row r="2" spans="1:8" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="23"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="35"/>
     </row>
     <row r="3" spans="1:8" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="24"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="27"/>
+      <c r="A3" s="36"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="39"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="29"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="41"/>
     </row>
     <row r="4" spans="1:8" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="17"/>
+      <c r="C4" s="29"/>
       <c r="D4" s="5" t="s">
         <v>1</v>
       </c>
@@ -2027,28 +2235,26 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
-        <v>1</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
     </row>
     <row r="6" spans="1:8" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
-        <v>2</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10" t="s">
-        <v>143</v>
+        <v>1</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>142</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
@@ -2058,11 +2264,11 @@
     </row>
     <row r="7" spans="1:8" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
-        <v>3</v>
-      </c>
-      <c r="B7" s="14"/>
+        <v>2</v>
+      </c>
+      <c r="B7" s="9"/>
       <c r="C7" s="10" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
@@ -2072,11 +2278,11 @@
     </row>
     <row r="8" spans="1:8" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="14"/>
-      <c r="C8" s="15" t="s">
-        <v>145</v>
+      <c r="C8" s="10" t="s">
+        <v>140</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
@@ -2086,13 +2292,11 @@
     </row>
     <row r="9" spans="1:8" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
-        <v>5</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>147</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B9" s="14"/>
       <c r="C9" s="15" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
@@ -2102,13 +2306,13 @@
     </row>
     <row r="10" spans="1:8" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -2118,10 +2322,14 @@
     </row>
     <row r="11" spans="1:8" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
-        <v>7</v>
-      </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="15"/>
+        <v>6</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>146</v>
+      </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
@@ -2130,7 +2338,7 @@
     </row>
     <row r="12" spans="1:8" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" s="14"/>
       <c r="C12" s="15"/>
@@ -2142,7 +2350,7 @@
     </row>
     <row r="13" spans="1:8" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" s="14"/>
       <c r="C13" s="15"/>
@@ -2154,7 +2362,7 @@
     </row>
     <row r="14" spans="1:8" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" s="14"/>
       <c r="C14" s="15"/>
@@ -2166,7 +2374,7 @@
     </row>
     <row r="15" spans="1:8" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15" s="14"/>
       <c r="C15" s="15"/>
@@ -2178,7 +2386,7 @@
     </row>
     <row r="16" spans="1:8" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16" s="14"/>
       <c r="C16" s="15"/>
@@ -2190,7 +2398,7 @@
     </row>
     <row r="17" spans="1:8" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" s="14"/>
       <c r="C17" s="15"/>
@@ -2202,7 +2410,7 @@
     </row>
     <row r="18" spans="1:8" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18" s="14"/>
       <c r="C18" s="15"/>
@@ -2214,7 +2422,7 @@
     </row>
     <row r="19" spans="1:8" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" s="14"/>
       <c r="C19" s="15"/>
@@ -2226,7 +2434,7 @@
     </row>
     <row r="20" spans="1:8" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B20" s="14"/>
       <c r="C20" s="15"/>
@@ -2238,7 +2446,7 @@
     </row>
     <row r="21" spans="1:8" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B21" s="14"/>
       <c r="C21" s="15"/>
@@ -2250,7 +2458,7 @@
     </row>
     <row r="22" spans="1:8" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B22" s="14"/>
       <c r="C22" s="15"/>
@@ -2262,7 +2470,7 @@
     </row>
     <row r="23" spans="1:8" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B23" s="14"/>
       <c r="C23" s="15"/>
@@ -2272,8 +2480,21 @@
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
     </row>
+    <row r="24" spans="1:8" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
+        <v>19</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="B5:H5"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
@@ -2291,8 +2512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2308,53 +2529,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="62.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="20"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="32"/>
     </row>
     <row r="2" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="23"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="35"/>
     </row>
     <row r="3" spans="1:9" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="24"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="27"/>
+      <c r="A3" s="36"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="39"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="29"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="41"/>
     </row>
     <row r="4" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="17"/>
+      <c r="C4" s="29"/>
       <c r="D4" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>3</v>
@@ -2373,7 +2594,7 @@
       <c r="A5" s="3">
         <v>1</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="22" t="s">
         <v>54</v>
       </c>
       <c r="C5" s="10" t="s">
@@ -2386,7 +2607,7 @@
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I5" s="8"/>
     </row>
@@ -2394,30 +2615,30 @@
       <c r="A6" s="3">
         <v>2</v>
       </c>
-      <c r="B6" s="33"/>
+      <c r="B6" s="23"/>
       <c r="C6" s="10" t="s">
         <v>43</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="8" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>3</v>
       </c>
-      <c r="B7" s="33"/>
+      <c r="B7" s="23"/>
       <c r="C7" s="10" t="s">
         <v>44</v>
       </c>
@@ -2436,7 +2657,7 @@
       <c r="A8" s="3">
         <v>4</v>
       </c>
-      <c r="B8" s="33"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="10" t="s">
         <v>45</v>
       </c>
@@ -2455,7 +2676,7 @@
       <c r="A9" s="3">
         <v>5</v>
       </c>
-      <c r="B9" s="33"/>
+      <c r="B9" s="23"/>
       <c r="C9" s="10" t="s">
         <v>46</v>
       </c>
@@ -2472,7 +2693,7 @@
       <c r="A10" s="3">
         <v>6</v>
       </c>
-      <c r="B10" s="33"/>
+      <c r="B10" s="23"/>
       <c r="C10" s="10" t="s">
         <v>47</v>
       </c>
@@ -2483,7 +2704,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8" t="s">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="I10" s="8"/>
     </row>
@@ -2491,20 +2712,20 @@
       <c r="A11" s="3">
         <v>7</v>
       </c>
-      <c r="B11" s="33"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8" t="s">
         <v>52</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8" t="s">
-        <v>82</v>
+        <v>165</v>
       </c>
       <c r="I11" s="8"/>
     </row>
@@ -2512,7 +2733,7 @@
       <c r="A12" s="3">
         <v>8</v>
       </c>
-      <c r="B12" s="33"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="10" t="s">
         <v>48</v>
       </c>
@@ -2521,11 +2742,11 @@
         <v>53</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="8" t="s">
-        <v>82</v>
+        <v>166</v>
       </c>
       <c r="I12" s="8"/>
     </row>
@@ -2533,20 +2754,20 @@
       <c r="A13" s="3">
         <v>9</v>
       </c>
-      <c r="B13" s="33"/>
+      <c r="B13" s="23"/>
       <c r="C13" s="10" t="s">
         <v>55</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I13" s="8"/>
     </row>
@@ -2554,7 +2775,7 @@
       <c r="A14" s="3">
         <v>10</v>
       </c>
-      <c r="B14" s="33"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="10" t="s">
         <v>68</v>
       </c>
@@ -2565,7 +2786,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I14" s="8"/>
     </row>
@@ -2573,7 +2794,7 @@
       <c r="A15" s="3">
         <v>11</v>
       </c>
-      <c r="B15" s="33"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="10" t="s">
         <v>56</v>
       </c>
@@ -2584,7 +2805,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I15" s="8"/>
     </row>
@@ -2592,7 +2813,7 @@
       <c r="A16" s="3">
         <v>12</v>
       </c>
-      <c r="B16" s="33"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="10" t="s">
         <v>58</v>
       </c>
@@ -2603,7 +2824,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I16" s="8"/>
     </row>
@@ -2611,7 +2832,7 @@
       <c r="A17" s="3">
         <v>13</v>
       </c>
-      <c r="B17" s="33"/>
+      <c r="B17" s="23"/>
       <c r="C17" s="10" t="s">
         <v>59</v>
       </c>
@@ -2622,7 +2843,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I17" s="8"/>
     </row>
@@ -2630,7 +2851,7 @@
       <c r="A18" s="3">
         <v>14</v>
       </c>
-      <c r="B18" s="33"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="10" t="s">
         <v>64</v>
       </c>
@@ -2641,7 +2862,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I18" s="8"/>
     </row>
@@ -2649,7 +2870,7 @@
       <c r="A19" s="3">
         <v>15</v>
       </c>
-      <c r="B19" s="33"/>
+      <c r="B19" s="23"/>
       <c r="C19" s="10" t="s">
         <v>66</v>
       </c>
@@ -2660,7 +2881,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I19" s="8"/>
     </row>
@@ -2668,7 +2889,7 @@
       <c r="A20" s="3">
         <v>16</v>
       </c>
-      <c r="B20" s="33"/>
+      <c r="B20" s="23"/>
       <c r="C20" s="10" t="s">
         <v>69</v>
       </c>
@@ -2679,7 +2900,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I20" s="8"/>
     </row>
@@ -2687,7 +2908,7 @@
       <c r="A21" s="3">
         <v>17</v>
       </c>
-      <c r="B21" s="34"/>
+      <c r="B21" s="24"/>
       <c r="C21" s="10" t="s">
         <v>71</v>
       </c>
@@ -2698,7 +2919,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I21" s="8"/>
     </row>
@@ -2719,7 +2940,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I22" s="8"/>
     </row>
@@ -2727,18 +2948,18 @@
       <c r="A23" s="3">
         <v>19</v>
       </c>
-      <c r="B23" s="32" t="s">
-        <v>98</v>
+      <c r="B23" s="22" t="s">
+        <v>96</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
@@ -2748,16 +2969,16 @@
       <c r="A24" s="3">
         <v>20</v>
       </c>
-      <c r="B24" s="33"/>
+      <c r="B24" s="23"/>
       <c r="C24" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
@@ -2767,9 +2988,9 @@
       <c r="A25" s="3">
         <v>21</v>
       </c>
-      <c r="B25" s="33"/>
+      <c r="B25" s="23"/>
       <c r="C25" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8">
@@ -2784,9 +3005,9 @@
       <c r="A26" s="3">
         <v>22</v>
       </c>
-      <c r="B26" s="34"/>
+      <c r="B26" s="24"/>
       <c r="C26" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8">
@@ -2801,22 +3022,22 @@
       <c r="A27" s="3">
         <v>23</v>
       </c>
-      <c r="B27" s="32" t="s">
-        <v>120</v>
+      <c r="B27" s="22" t="s">
+        <v>118</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G27" s="8"/>
       <c r="H27" s="8" t="s">
-        <v>123</v>
+        <v>164</v>
       </c>
       <c r="I27" s="8"/>
     </row>
@@ -2824,20 +3045,20 @@
       <c r="A28" s="3">
         <v>24</v>
       </c>
-      <c r="B28" s="33"/>
+      <c r="B28" s="23"/>
       <c r="C28" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G28" s="8"/>
       <c r="H28" s="8" t="s">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="I28" s="8"/>
     </row>
@@ -2845,41 +3066,57 @@
       <c r="A29" s="3">
         <v>25</v>
       </c>
-      <c r="B29" s="34"/>
+      <c r="B29" s="24"/>
       <c r="C29" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
     </row>
-    <row r="30" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3">
         <v>26</v>
       </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
+      <c r="B30" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="C30" s="16"/>
+      <c r="D30" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>157</v>
+      </c>
       <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
+      <c r="H30" s="8" t="s">
+        <v>162</v>
+      </c>
       <c r="I30" s="8"/>
     </row>
     <row r="31" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A31" s="3">
         <v>27</v>
       </c>
-      <c r="B31" s="9"/>
+      <c r="B31" s="23"/>
       <c r="C31" s="10"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
+      <c r="D31" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>161</v>
+      </c>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
@@ -2888,11 +3125,17 @@
       <c r="A32" s="3">
         <v>28</v>
       </c>
-      <c r="B32" s="9"/>
+      <c r="B32" s="23"/>
       <c r="C32" s="10"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
+      <c r="D32" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>160</v>
+      </c>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
@@ -2901,23 +3144,36 @@
       <c r="A33" s="3">
         <v>29</v>
       </c>
-      <c r="B33" s="9"/>
+      <c r="B33" s="24"/>
       <c r="C33" s="10"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
+      <c r="D33" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>159</v>
+      </c>
       <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
       <c r="I33" s="8"/>
     </row>
-    <row r="34" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="3">
         <v>30</v>
       </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
+      <c r="B34" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>186</v>
+      </c>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
@@ -2927,66 +3183,122 @@
       <c r="A35" s="3">
         <v>31</v>
       </c>
-      <c r="B35" s="9"/>
+      <c r="B35" s="23"/>
       <c r="C35" s="10"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
+      <c r="D35" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>182</v>
+      </c>
       <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
+      <c r="I35" s="8" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="36" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A36" s="3">
         <v>32</v>
       </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="D36" s="8">
+        <v>33</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>180</v>
+      </c>
       <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-    </row>
-    <row r="37" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="I36" s="8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="37.5" x14ac:dyDescent="0.15">
       <c r="A37" s="3">
         <v>33</v>
       </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="43" t="s">
+        <v>169</v>
+      </c>
+      <c r="D37" s="8">
+        <v>79</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>176</v>
+      </c>
       <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-    </row>
-    <row r="38" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="I37" s="8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="37.5" x14ac:dyDescent="0.15">
       <c r="A38" s="3">
         <v>34</v>
       </c>
-      <c r="B38" s="9"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="8">
+        <v>79</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>177</v>
+      </c>
       <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-    </row>
-    <row r="39" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="I38" s="8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="56.25" x14ac:dyDescent="0.15">
       <c r="A39" s="3">
         <v>35</v>
       </c>
-      <c r="B39" s="9"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>178</v>
+      </c>
       <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
+      <c r="I39" s="8" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="40" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A40" s="3">
@@ -3044,16 +3356,19 @@
       <c r="B56" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:B21"/>
+  <mergeCells count="12">
+    <mergeCell ref="B34:B39"/>
+    <mergeCell ref="C37:C38"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="F3:I3"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:B21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3079,32 +3394,32 @@
   <sheetData>
     <row r="1" spans="1:5" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="29"/>
+      <c r="D1" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="5" t="s">
-        <v>103</v>
-      </c>
       <c r="E1" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="56.25" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>102</v>
-      </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>104</v>
       </c>
     </row>
   </sheetData>
